--- a/Versuch_FRET/04-Versuchsauswertung/Paul/42.xlsx
+++ b/Versuch_FRET/04-Versuchsauswertung/Paul/42.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paul/Documents/GitHub/PhyPraktikum/Versuch_FRET/04-Versuchsauswertung/Paul/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5AE2BA-D43C-A649-AB09-D0064CB52C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EACECE-8AF2-CD46-9B0E-C2EEDD95EB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1840" windowWidth="28040" windowHeight="17360" xr2:uid="{6D0E4EF2-1775-E943-B6E8-1DDB3097DE63}"/>
+    <workbookView xWindow="5180" yWindow="1840" windowWidth="28040" windowHeight="17360" activeTab="1" xr2:uid="{6D0E4EF2-1775-E943-B6E8-1DDB3097DE63}"/>
   </bookViews>
   <sheets>
     <sheet name="KorrekturfaktorenYFP" sheetId="1" r:id="rId1"/>
+    <sheet name="KorrekturfaktorenCFP" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Zelle</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>D</t>
   </si>
@@ -73,6 +71,18 @@
   </si>
   <si>
     <t>S gb</t>
+  </si>
+  <si>
+    <t>Zelle Nr.</t>
+  </si>
+  <si>
+    <t>Mittelwert</t>
+  </si>
+  <si>
+    <t>S  bg</t>
+  </si>
+  <si>
+    <t>beta</t>
   </si>
 </sst>
 </file>
@@ -424,131 +434,767 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC85BF5-D058-0D41-B40B-CDD072D3FB19}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
       <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
-      </c>
-      <c r="M1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>5.4809999999999999</v>
+      </c>
+      <c r="C2">
+        <v>100.07</v>
+      </c>
+      <c r="D2">
+        <v>181.50700000000001</v>
+      </c>
+      <c r="E2">
+        <v>3.7959999999999998</v>
+      </c>
+      <c r="F2">
+        <v>2.1640000000000001</v>
+      </c>
+      <c r="G2">
+        <v>2.2309999999999999</v>
+      </c>
       <c r="H2">
         <f>B2-E2</f>
-        <v>0</v>
+        <v>1.6850000000000001</v>
       </c>
       <c r="I2">
         <f>C2-F2</f>
-        <v>0</v>
+        <v>97.905999999999992</v>
       </c>
       <c r="J2">
         <f>D2-G2</f>
-        <v>0</v>
-      </c>
-      <c r="K2" t="e">
+        <v>179.27600000000001</v>
+      </c>
+      <c r="K2">
         <f>H2/I2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L2" t="e">
+        <v>1.7210385471779055E-2</v>
+      </c>
+      <c r="L2">
         <f>J2/I2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M2" t="e">
+        <v>1.8311033031683455</v>
+      </c>
+      <c r="M2">
         <f>H2/J2</f>
-        <v>#DIV/0!</v>
+        <v>9.3989156384569044E-3</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>4.2880000000000003</v>
+      </c>
+      <c r="C3">
+        <v>19.274999999999999</v>
+      </c>
+      <c r="D3">
+        <v>42.667999999999999</v>
+      </c>
+      <c r="E3">
+        <v>3.9169999999999998</v>
+      </c>
+      <c r="F3">
+        <v>2.1989999999999998</v>
+      </c>
+      <c r="G3">
+        <v>2.3380000000000001</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H13" si="0">B3-E3</f>
+        <v>0.37100000000000044</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I13" si="1">C3-F3</f>
+        <v>17.076000000000001</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J13" si="2">D3-G3</f>
+        <v>40.33</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K13" si="3">H3/I3</f>
+        <v>2.1726399625204992E-2</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L13" si="4">J3/I3</f>
+        <v>2.3617943312251111</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M13" si="5">H3/J3</f>
+        <v>9.1991073642449898E-3</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>4.2770000000000001</v>
+      </c>
+      <c r="C4">
+        <v>40.432000000000002</v>
+      </c>
+      <c r="D4">
+        <v>96.637</v>
+      </c>
+      <c r="E4">
+        <v>3.7480000000000002</v>
+      </c>
+      <c r="F4">
+        <v>1.9810000000000001</v>
+      </c>
+      <c r="G4">
+        <v>1.6579999999999999</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0.52899999999999991</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>38.451000000000001</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>94.978999999999999</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="3"/>
+        <v>1.375776962887831E-2</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="4"/>
+        <v>2.4701308158435409</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="5"/>
+        <v>5.5696522389159699E-3</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>4.1379999999999999</v>
+      </c>
+      <c r="C5">
+        <v>27.594000000000001</v>
+      </c>
+      <c r="D5">
+        <v>62.911999999999999</v>
+      </c>
+      <c r="E5">
+        <v>3.6</v>
+      </c>
+      <c r="F5">
+        <v>2.1850000000000001</v>
+      </c>
+      <c r="G5">
+        <v>2.2090000000000001</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0.53799999999999981</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>25.409000000000002</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>60.702999999999996</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>2.1173599905545269E-2</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="4"/>
+        <v>2.3890353811641543</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="5"/>
+        <v>8.8628239131509131E-3</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="C6">
+        <v>34.719000000000001</v>
+      </c>
+      <c r="D6">
+        <v>78.165999999999997</v>
+      </c>
+      <c r="E6">
+        <v>3.7610000000000001</v>
+      </c>
+      <c r="F6">
+        <v>2.2839999999999998</v>
+      </c>
+      <c r="G6">
+        <v>2.4390000000000001</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0.42900000000000027</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>32.435000000000002</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>75.727000000000004</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>1.322645290581163E-2</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>2.3347310004624635</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="5"/>
+        <v>5.6650864288826999E-3</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>4.181</v>
+      </c>
+      <c r="C7">
+        <v>29.507000000000001</v>
+      </c>
+      <c r="D7">
+        <v>66.043000000000006</v>
+      </c>
+      <c r="E7">
+        <v>3.6480000000000001</v>
+      </c>
+      <c r="F7">
+        <v>2.1819999999999999</v>
+      </c>
+      <c r="G7">
+        <v>2.1230000000000002</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0.53299999999999992</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>27.325000000000003</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>63.920000000000009</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>1.9505946935041166E-2</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>2.3392497712717293</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>8.3385481852315362E-3</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8">
+        <v>4.2649999999999997</v>
+      </c>
+      <c r="C8">
+        <v>50.273000000000003</v>
+      </c>
+      <c r="D8">
+        <v>116.33499999999999</v>
+      </c>
+      <c r="E8">
+        <v>3.6139999999999999</v>
+      </c>
+      <c r="F8">
+        <v>2.1890000000000001</v>
+      </c>
+      <c r="G8">
+        <v>2.1360000000000001</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0.6509999999999998</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>48.084000000000003</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>114.199</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>1.3538807087596701E-2</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="4"/>
+        <v>2.3749896015306544</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="5"/>
+        <v>5.7005753115176123E-3</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9">
+        <v>4.0739999999999998</v>
+      </c>
+      <c r="C9">
+        <v>15.265000000000001</v>
+      </c>
+      <c r="D9">
+        <v>33.728000000000002</v>
+      </c>
+      <c r="E9">
+        <v>3.5840000000000001</v>
+      </c>
+      <c r="F9">
+        <v>2.0329999999999999</v>
+      </c>
+      <c r="G9">
+        <v>1.8939999999999999</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.48999999999999977</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>13.232000000000001</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>31.834000000000003</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>3.7031438935912916E-2</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>2.4058343409915359</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="5"/>
+        <v>1.5392347804234457E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10">
+        <v>4.4749999999999996</v>
+      </c>
+      <c r="C10">
+        <v>36.802</v>
+      </c>
+      <c r="D10">
+        <v>82.418000000000006</v>
+      </c>
+      <c r="E10">
+        <v>3.8769999999999998</v>
+      </c>
+      <c r="F10">
+        <v>2.113</v>
+      </c>
+      <c r="G10">
+        <v>2.1179999999999999</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0.59799999999999986</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>34.689</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>80.300000000000011</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>1.7238894173945626E-2</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="4"/>
+        <v>2.3148548531234687</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="5"/>
+        <v>7.447073474470732E-3</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
+      </c>
+      <c r="B11">
+        <v>4.33</v>
+      </c>
+      <c r="C11">
+        <v>32.137</v>
+      </c>
+      <c r="D11">
+        <v>74.971999999999994</v>
+      </c>
+      <c r="E11">
+        <v>3.7229999999999999</v>
+      </c>
+      <c r="F11">
+        <v>2.101</v>
+      </c>
+      <c r="G11">
+        <v>2.048</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0.60700000000000021</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>30.036000000000001</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>72.923999999999992</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>2.0209082434412044E-2</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="4"/>
+        <v>2.4278865361566115</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="5"/>
+        <v>8.3237342987219614E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13">
+        <f>AVERAGE(K2:K11)</f>
+        <v>1.9461877710412773E-2</v>
+      </c>
+      <c r="L13">
+        <f>AVERAGE(L2:L11)</f>
+        <v>2.3249609934937618</v>
+      </c>
+      <c r="M13">
+        <f>AVERAGE(M2:M11)</f>
+        <v>8.3897864657827784E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7B5BDB-BCB4-0F48-B978-12681CAD4977}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>105.307</v>
+      </c>
+      <c r="C2">
+        <v>20.414000000000001</v>
+      </c>
+      <c r="D2">
+        <v>3.9849999999999999</v>
+      </c>
+      <c r="E2">
+        <v>1.976</v>
+      </c>
+      <c r="F2">
+        <f>B2-D2</f>
+        <v>101.322</v>
+      </c>
+      <c r="G2">
+        <f>C2-E2</f>
+        <v>18.438000000000002</v>
+      </c>
+      <c r="H2">
+        <f>F2/G2</f>
+        <v>5.4952814838919615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F11" si="0">B3-D3</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G11" si="1">C3-E3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" t="e">
+        <f t="shared" ref="H3:H11" si="2">F3/G3</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f>C11-E11</f>
+        <v>0</v>
+      </c>
+      <c r="H11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Versuch_FRET/04-Versuchsauswertung/Paul/42.xlsx
+++ b/Versuch_FRET/04-Versuchsauswertung/Paul/42.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paul/Documents/GitHub/PhyPraktikum/Versuch_FRET/04-Versuchsauswertung/Paul/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EACECE-8AF2-CD46-9B0E-C2EEDD95EB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B929C0-2848-6E4E-8A3C-E3D724D98C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1840" windowWidth="28040" windowHeight="17360" activeTab="1" xr2:uid="{6D0E4EF2-1775-E943-B6E8-1DDB3097DE63}"/>
+    <workbookView xWindow="3320" yWindow="1720" windowWidth="28040" windowHeight="17360" activeTab="1" xr2:uid="{6D0E4EF2-1775-E943-B6E8-1DDB3097DE63}"/>
   </bookViews>
   <sheets>
     <sheet name="KorrekturfaktorenYFP" sheetId="1" r:id="rId1"/>
     <sheet name="KorrekturfaktorenCFP" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>D</t>
   </si>
@@ -79,10 +79,13 @@
     <t>Mittelwert</t>
   </si>
   <si>
-    <t>S  bg</t>
-  </si>
-  <si>
     <t>beta</t>
+  </si>
+  <si>
+    <t>D  bg</t>
+  </si>
+  <si>
+    <t>S bg</t>
   </si>
 </sst>
 </file>
@@ -553,27 +556,27 @@
         <v>2.3380000000000001</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H13" si="0">B3-E3</f>
+        <f t="shared" ref="H3:H11" si="0">B3-E3</f>
         <v>0.37100000000000044</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I13" si="1">C3-F3</f>
+        <f t="shared" ref="I3:I11" si="1">C3-F3</f>
         <v>17.076000000000001</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J13" si="2">D3-G3</f>
+        <f t="shared" ref="J3:J11" si="2">D3-G3</f>
         <v>40.33</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K13" si="3">H3/I3</f>
+        <f t="shared" ref="K3:K11" si="3">H3/I3</f>
         <v>2.1726399625204992E-2</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L13" si="4">J3/I3</f>
+        <f t="shared" ref="L3:L11" si="4">J3/I3</f>
         <v>2.3617943312251111</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M13" si="5">H3/J3</f>
+        <f t="shared" ref="M3:M11" si="5">H3/J3</f>
         <v>9.1991073642449898E-3</v>
       </c>
     </row>
@@ -981,7 +984,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -991,25 +994,25 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
       <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
         <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1017,181 +1020,289 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>105.307</v>
+        <v>106.226</v>
       </c>
       <c r="C2">
-        <v>20.414000000000001</v>
+        <v>20.79</v>
       </c>
       <c r="D2">
-        <v>3.9849999999999999</v>
+        <v>3.76</v>
       </c>
       <c r="E2">
-        <v>1.976</v>
+        <v>1.9850000000000001</v>
       </c>
       <c r="F2">
         <f>B2-D2</f>
-        <v>101.322</v>
+        <v>102.46599999999999</v>
       </c>
       <c r="G2">
         <f>C2-E2</f>
-        <v>18.438000000000002</v>
+        <v>18.805</v>
       </c>
       <c r="H2">
-        <f>F2/G2</f>
-        <v>5.4952814838919615</v>
+        <f>G2/F2</f>
+        <v>0.18352429098432652</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>71.805000000000007</v>
+      </c>
+      <c r="C3">
+        <v>14.635999999999999</v>
+      </c>
+      <c r="D3">
+        <v>3.6190000000000002</v>
+      </c>
+      <c r="E3">
+        <v>1.7</v>
+      </c>
       <c r="F3">
         <f t="shared" ref="F3:F11" si="0">B3-D3</f>
-        <v>0</v>
+        <v>68.186000000000007</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G11" si="1">C3-E3</f>
-        <v>0</v>
-      </c>
-      <c r="H3" t="e">
-        <f t="shared" ref="H3:H11" si="2">F3/G3</f>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="G3:G10" si="1">C3-E3</f>
+        <v>12.936</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H11" si="2">G3/F3</f>
+        <v>0.18971636406300413</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>18.722000000000001</v>
+      </c>
+      <c r="C4">
+        <v>4.7370000000000001</v>
+      </c>
+      <c r="D4">
+        <v>3.5379999999999998</v>
+      </c>
+      <c r="E4">
+        <v>1.9410000000000001</v>
+      </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15.184000000000001</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2.7960000000000003</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>0.18414120126448894</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>41.829000000000001</v>
+      </c>
+      <c r="C5">
+        <v>8.74</v>
+      </c>
+      <c r="D5">
+        <v>3.7989999999999999</v>
+      </c>
+      <c r="E5">
+        <v>2.0590000000000002</v>
+      </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>38.03</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H5" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>6.681</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>0.17567709702866158</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>31.788</v>
+      </c>
+      <c r="C6">
+        <v>6.9489999999999998</v>
+      </c>
+      <c r="D6">
+        <v>3.8330000000000002</v>
+      </c>
+      <c r="E6">
+        <v>2.089</v>
+      </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>27.954999999999998</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H6" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>4.8599999999999994</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>0.17385083169379359</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>22.343</v>
+      </c>
+      <c r="C7">
+        <v>5.2480000000000002</v>
+      </c>
+      <c r="D7">
+        <v>3.5960000000000001</v>
+      </c>
+      <c r="E7">
+        <v>2.0190000000000001</v>
+      </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18.747</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H7" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>3.2290000000000001</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>0.1722408918760335</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8">
+        <v>93.450999999999993</v>
+      </c>
+      <c r="C8">
+        <v>18.564</v>
+      </c>
+      <c r="D8">
+        <v>3.7130000000000001</v>
+      </c>
+      <c r="E8">
+        <v>2.1480000000000001</v>
+      </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>89.738</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>16.416</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>0.18293253694087233</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9">
+        <v>60.024000000000001</v>
+      </c>
+      <c r="C9">
+        <v>12.147</v>
+      </c>
+      <c r="D9">
+        <v>3.6259999999999999</v>
+      </c>
+      <c r="E9">
+        <v>2.113</v>
+      </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>56.398000000000003</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H9" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>10.034000000000001</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0.17791411042944785</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10">
+        <v>62.366</v>
+      </c>
+      <c r="C10">
+        <v>12.782</v>
+      </c>
+      <c r="D10">
+        <v>3.706</v>
+      </c>
+      <c r="E10">
+        <v>2.0030000000000001</v>
+      </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>58.66</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>10.779</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0.18375383566314354</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11">
+        <v>54.67</v>
+      </c>
+      <c r="C11">
+        <v>11.239000000000001</v>
+      </c>
+      <c r="D11">
+        <v>3.851</v>
+      </c>
+      <c r="E11">
+        <v>2.262</v>
+      </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50.819000000000003</v>
       </c>
       <c r="G11">
         <f>C11-E11</f>
-        <v>0</v>
-      </c>
-      <c r="H11" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>8.9770000000000003</v>
+      </c>
+      <c r="H11">
+        <f>G11/F11</f>
+        <v>0.17664652984120113</v>
       </c>
     </row>
   </sheetData>

--- a/Versuch_FRET/04-Versuchsauswertung/Paul/42.xlsx
+++ b/Versuch_FRET/04-Versuchsauswertung/Paul/42.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paul/Documents/GitHub/PhyPraktikum/Versuch_FRET/04-Versuchsauswertung/Paul/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B929C0-2848-6E4E-8A3C-E3D724D98C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0752DCBD-6BF4-CA49-B2A5-82FEFADC5956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3320" yWindow="1720" windowWidth="28040" windowHeight="17360" activeTab="1" xr2:uid="{6D0E4EF2-1775-E943-B6E8-1DDB3097DE63}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>D</t>
   </si>
@@ -981,10 +981,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7B5BDB-BCB4-0F48-B978-12681CAD4977}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1305,6 +1305,15 @@
         <v>0.17664652984120113</v>
       </c>
     </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13">
+        <f>AVERAGE(H2:H11)</f>
+        <v>0.18003976897849733</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Versuch_FRET/04-Versuchsauswertung/Paul/42.xlsx
+++ b/Versuch_FRET/04-Versuchsauswertung/Paul/42.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paul/Documents/GitHub/PhyPraktikum/Versuch_FRET/04-Versuchsauswertung/Paul/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0752DCBD-6BF4-CA49-B2A5-82FEFADC5956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0888EA9B-F79C-0E40-B7DD-071C69666B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3320" yWindow="1720" windowWidth="28040" windowHeight="17360" activeTab="1" xr2:uid="{6D0E4EF2-1775-E943-B6E8-1DDB3097DE63}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{6D0E4EF2-1775-E943-B6E8-1DDB3097DE63}"/>
   </bookViews>
   <sheets>
     <sheet name="KorrekturfaktorenYFP" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>D</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>S bg</t>
+  </si>
+  <si>
+    <t>(1-beta*delta)</t>
+  </si>
+  <si>
+    <t>(gamma-alpha*beta)</t>
   </si>
 </sst>
 </file>
@@ -437,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC85BF5-D058-0D41-B40B-CDD072D3FB19}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -971,6 +977,24 @@
       <c r="M13">
         <f>AVERAGE(M2:M11)</f>
         <v>8.3897864657827784E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18">
+        <f>L13-K13*KorrekturfaktorenCFP!H13</f>
+        <v>2.3214570815268916</v>
+      </c>
+    </row>
+    <row r="20" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20">
+        <f>1-L13*KorrekturfaktorenCFP!H13</f>
+        <v>0.58141455984736545</v>
       </c>
     </row>
   </sheetData>
@@ -983,7 +1007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7B5BDB-BCB4-0F48-B978-12681CAD4977}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -1069,7 +1093,7 @@
         <v>12.936</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H11" si="2">G3/F3</f>
+        <f t="shared" ref="H3:H10" si="2">G3/F3</f>
         <v>0.18971636406300413</v>
       </c>
     </row>

--- a/Versuch_FRET/04-Versuchsauswertung/Paul/42.xlsx
+++ b/Versuch_FRET/04-Versuchsauswertung/Paul/42.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paul/Documents/GitHub/PhyPraktikum/Versuch_FRET/04-Versuchsauswertung/Paul/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0888EA9B-F79C-0E40-B7DD-071C69666B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EBB2DD-4569-4C4E-A0AB-B4802B6B49D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{6D0E4EF2-1775-E943-B6E8-1DDB3097DE63}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{6D0E4EF2-1775-E943-B6E8-1DDB3097DE63}"/>
   </bookViews>
   <sheets>
     <sheet name="KorrekturfaktorenYFP" sheetId="1" r:id="rId1"/>
@@ -446,7 +446,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1008,7 +1008,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Versuch_FRET/04-Versuchsauswertung/Paul/42.xlsx
+++ b/Versuch_FRET/04-Versuchsauswertung/Paul/42.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paul/Documents/GitHub/PhyPraktikum/Versuch_FRET/04-Versuchsauswertung/Paul/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EBB2DD-4569-4C4E-A0AB-B4802B6B49D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BAC75C-3B26-5542-B84F-E949411B1CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{6D0E4EF2-1775-E943-B6E8-1DDB3097DE63}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{6D0E4EF2-1775-E943-B6E8-1DDB3097DE63}"/>
   </bookViews>
   <sheets>
-    <sheet name="KorrekturfaktorenYFP" sheetId="1" r:id="rId1"/>
-    <sheet name="KorrekturfaktorenCFP" sheetId="2" r:id="rId2"/>
+    <sheet name="SE-E-CY" sheetId="3" r:id="rId1"/>
+    <sheet name="KorrekturfaktorenYFP" sheetId="1" r:id="rId2"/>
+    <sheet name="KorrekturfaktorenCFP" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>D</t>
   </si>
@@ -442,11 +443,639 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5212FA19-28C7-594B-9974-032BBDBF66D8}">
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>82.503</v>
+      </c>
+      <c r="C2">
+        <v>55.881</v>
+      </c>
+      <c r="D2">
+        <v>81.03</v>
+      </c>
+      <c r="E2">
+        <v>3.5139999999999998</v>
+      </c>
+      <c r="F2">
+        <v>1.417</v>
+      </c>
+      <c r="G2">
+        <v>2.3879999999999999</v>
+      </c>
+      <c r="H2">
+        <f>B2-E2</f>
+        <v>78.989000000000004</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:J2" si="0">C2-F2</f>
+        <v>54.463999999999999</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>78.641999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>52.362000000000002</v>
+      </c>
+      <c r="C3">
+        <v>31.163</v>
+      </c>
+      <c r="D3">
+        <v>45.902000000000001</v>
+      </c>
+      <c r="E3">
+        <v>3.4860000000000002</v>
+      </c>
+      <c r="F3">
+        <v>1.6439999999999999</v>
+      </c>
+      <c r="G3">
+        <v>1.4650000000000001</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H23" si="1">B3-E3</f>
+        <v>48.876000000000005</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I23" si="2">C3-F3</f>
+        <v>29.519000000000002</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J23" si="3">D3-G3</f>
+        <v>44.436999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>44.338000000000001</v>
+      </c>
+      <c r="C4">
+        <v>29.646999999999998</v>
+      </c>
+      <c r="D4">
+        <v>42.262</v>
+      </c>
+      <c r="E4">
+        <v>3.5680000000000001</v>
+      </c>
+      <c r="F4">
+        <v>1.556</v>
+      </c>
+      <c r="G4">
+        <v>1.6319999999999999</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>40.770000000000003</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>28.090999999999998</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>40.630000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>39.061</v>
+      </c>
+      <c r="C5">
+        <v>26.484999999999999</v>
+      </c>
+      <c r="D5">
+        <v>41.817999999999998</v>
+      </c>
+      <c r="E5">
+        <v>3.5449999999999999</v>
+      </c>
+      <c r="F5">
+        <v>1.6439999999999999</v>
+      </c>
+      <c r="G5">
+        <v>1.6120000000000001</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>35.515999999999998</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>24.841000000000001</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>40.205999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>35.378</v>
+      </c>
+      <c r="C6">
+        <v>24.173999999999999</v>
+      </c>
+      <c r="D6">
+        <v>37.747</v>
+      </c>
+      <c r="E6">
+        <v>3.6</v>
+      </c>
+      <c r="F6">
+        <v>1.637</v>
+      </c>
+      <c r="G6">
+        <v>1.51</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>31.777999999999999</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>22.536999999999999</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>36.237000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>69.873000000000005</v>
+      </c>
+      <c r="C7">
+        <v>31.196000000000002</v>
+      </c>
+      <c r="D7">
+        <v>38.262999999999998</v>
+      </c>
+      <c r="E7">
+        <v>4.2130000000000001</v>
+      </c>
+      <c r="F7">
+        <v>1.6619999999999999</v>
+      </c>
+      <c r="G7">
+        <v>1.8440000000000001</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>65.660000000000011</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>29.534000000000002</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>36.418999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>46.112000000000002</v>
+      </c>
+      <c r="C8">
+        <v>34.438000000000002</v>
+      </c>
+      <c r="D8">
+        <v>55.143999999999998</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>1.899</v>
+      </c>
+      <c r="G8">
+        <v>2.09</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>42.112000000000002</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>32.539000000000001</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>53.054000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>51.8</v>
+      </c>
+      <c r="C9">
+        <v>29.745000000000001</v>
+      </c>
+      <c r="D9">
+        <v>42.706000000000003</v>
+      </c>
+      <c r="E9">
+        <v>3.9060000000000001</v>
+      </c>
+      <c r="F9">
+        <v>1.9830000000000001</v>
+      </c>
+      <c r="G9">
+        <v>2.0169999999999999</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>47.893999999999998</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>27.762</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>40.689</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>37.798999999999999</v>
+      </c>
+      <c r="C10">
+        <v>32.536999999999999</v>
+      </c>
+      <c r="D10">
+        <v>52.326999999999998</v>
+      </c>
+      <c r="E10">
+        <v>3.5579999999999998</v>
+      </c>
+      <c r="F10">
+        <v>1.9159999999999999</v>
+      </c>
+      <c r="G10">
+        <v>1.9119999999999999</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>34.241</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>30.620999999999999</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>50.414999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>21.62</v>
+      </c>
+      <c r="C11">
+        <v>61.206000000000003</v>
+      </c>
+      <c r="D11">
+        <v>129.137</v>
+      </c>
+      <c r="E11">
+        <v>3.6890000000000001</v>
+      </c>
+      <c r="F11">
+        <v>1.8260000000000001</v>
+      </c>
+      <c r="G11">
+        <v>1.764</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>17.931000000000001</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>59.38</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>127.373</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>40.677</v>
+      </c>
+      <c r="C12">
+        <v>29.492999999999999</v>
+      </c>
+      <c r="D12">
+        <v>43.284999999999997</v>
+      </c>
+      <c r="E12">
+        <v>3.6850000000000001</v>
+      </c>
+      <c r="F12">
+        <v>1.7929999999999999</v>
+      </c>
+      <c r="G12">
+        <v>1.768</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>36.991999999999997</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>27.7</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>41.516999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>33.545999999999999</v>
+      </c>
+      <c r="C13">
+        <v>30.109000000000002</v>
+      </c>
+      <c r="D13">
+        <v>49.180999999999997</v>
+      </c>
+      <c r="E13">
+        <v>3.621</v>
+      </c>
+      <c r="F13">
+        <v>1.7569999999999999</v>
+      </c>
+      <c r="G13">
+        <v>1.722</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>29.925000000000001</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>28.352</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>47.458999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>9.4120000000000008</v>
+      </c>
+      <c r="C14">
+        <v>10.624000000000001</v>
+      </c>
+      <c r="D14">
+        <v>18.3</v>
+      </c>
+      <c r="E14">
+        <v>3.6120000000000001</v>
+      </c>
+      <c r="F14">
+        <v>1.8859999999999999</v>
+      </c>
+      <c r="G14">
+        <v>1.9470000000000001</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>5.8000000000000007</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>8.7380000000000013</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>16.353000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC85BF5-D058-0D41-B40B-CDD072D3FB19}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1003,7 +1632,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7B5BDB-BCB4-0F48-B978-12681CAD4977}">
   <dimension ref="A1:H13"/>
   <sheetViews>

--- a/Versuch_FRET/04-Versuchsauswertung/Paul/42.xlsx
+++ b/Versuch_FRET/04-Versuchsauswertung/Paul/42.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paul/Documents/GitHub/PhyPraktikum/Versuch_FRET/04-Versuchsauswertung/Paul/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BAC75C-3B26-5542-B84F-E949411B1CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB83A8A-3C05-C048-97BF-2423BB7A5DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{6D0E4EF2-1775-E943-B6E8-1DDB3097DE63}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19720" xr2:uid="{6D0E4EF2-1775-E943-B6E8-1DDB3097DE63}"/>
   </bookViews>
   <sheets>
     <sheet name="SE-E-CY" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>D</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>(gamma-alpha*beta)</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
@@ -444,15 +450,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5212FA19-28C7-594B-9974-032BBDBF66D8}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -483,8 +489,14 @@
       <c r="J1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -519,7 +531,7 @@
         <v>78.641999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -554,7 +566,7 @@
         <v>44.436999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -589,7 +601,7 @@
         <v>40.630000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -624,7 +636,7 @@
         <v>40.205999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -659,7 +671,7 @@
         <v>36.237000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -694,7 +706,7 @@
         <v>36.418999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -729,7 +741,7 @@
         <v>53.054000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -764,7 +776,7 @@
         <v>40.689</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -799,7 +811,7 @@
         <v>50.414999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -834,7 +846,7 @@
         <v>127.373</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -869,7 +881,7 @@
         <v>41.516999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -904,7 +916,7 @@
         <v>47.458999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -939,7 +951,7 @@
         <v>16.353000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H15">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -953,7 +965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H16">
         <f t="shared" si="1"/>
         <v>0</v>

--- a/Versuch_FRET/04-Versuchsauswertung/Paul/42.xlsx
+++ b/Versuch_FRET/04-Versuchsauswertung/Paul/42.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paul/Documents/GitHub/PhyPraktikum/Versuch_FRET/04-Versuchsauswertung/Paul/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB83A8A-3C05-C048-97BF-2423BB7A5DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4132DA8-690B-0A40-ADBC-08636B2592F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19720" xr2:uid="{6D0E4EF2-1775-E943-B6E8-1DDB3097DE63}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19720" activeTab="2" xr2:uid="{6D0E4EF2-1775-E943-B6E8-1DDB3097DE63}"/>
   </bookViews>
   <sheets>
     <sheet name="SE-E-CY" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>D</t>
   </si>
@@ -99,6 +99,18 @@
   </si>
   <si>
     <t>E</t>
+  </si>
+  <si>
+    <t>(A)S mes</t>
+  </si>
+  <si>
+    <t>(S)A mes</t>
+  </si>
+  <si>
+    <t>(A) S</t>
+  </si>
+  <si>
+    <t>(S)A</t>
   </si>
 </sst>
 </file>
@@ -452,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5212FA19-28C7-594B-9974-032BBDBF66D8}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1087,7 +1099,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1100,10 +1112,10 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
@@ -1118,10 +1130,10 @@
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="K1" t="s">
         <v>3</v>
@@ -1168,16 +1180,16 @@
         <v>179.27600000000001</v>
       </c>
       <c r="K2">
+        <f>H2/J2</f>
+        <v>9.3989156384569044E-3</v>
+      </c>
+      <c r="L2">
+        <f>I2/J2</f>
+        <v>0.54611883353042223</v>
+      </c>
+      <c r="M2">
         <f>H2/I2</f>
         <v>1.7210385471779055E-2</v>
-      </c>
-      <c r="L2">
-        <f>J2/I2</f>
-        <v>1.8311033031683455</v>
-      </c>
-      <c r="M2">
-        <f>H2/J2</f>
-        <v>9.3989156384569044E-3</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -1215,16 +1227,16 @@
         <v>40.33</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K11" si="3">H3/I3</f>
+        <f t="shared" ref="K3:K11" si="3">H3/J3</f>
+        <v>9.1991073642449898E-3</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L11" si="4">I3/J3</f>
+        <v>0.4234068931316638</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M11" si="5">H3/I3</f>
         <v>2.1726399625204992E-2</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L11" si="4">J3/I3</f>
-        <v>2.3617943312251111</v>
-      </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M11" si="5">H3/J3</f>
-        <v>9.1991073642449898E-3</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -1263,15 +1275,15 @@
       </c>
       <c r="K4">
         <f t="shared" si="3"/>
-        <v>1.375776962887831E-2</v>
+        <v>5.5696522389159699E-3</v>
       </c>
       <c r="L4">
         <f t="shared" si="4"/>
-        <v>2.4701308158435409</v>
+        <v>0.40483685867402269</v>
       </c>
       <c r="M4">
         <f t="shared" si="5"/>
-        <v>5.5696522389159699E-3</v>
+        <v>1.375776962887831E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -1310,15 +1322,15 @@
       </c>
       <c r="K5">
         <f t="shared" si="3"/>
-        <v>2.1173599905545269E-2</v>
+        <v>8.8628239131509131E-3</v>
       </c>
       <c r="L5">
         <f t="shared" si="4"/>
-        <v>2.3890353811641543</v>
+        <v>0.4185789829168246</v>
       </c>
       <c r="M5">
         <f t="shared" si="5"/>
-        <v>8.8628239131509131E-3</v>
+        <v>2.1173599905545269E-2</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -1357,15 +1369,15 @@
       </c>
       <c r="K6">
         <f t="shared" si="3"/>
-        <v>1.322645290581163E-2</v>
+        <v>5.6650864288826999E-3</v>
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>2.3347310004624635</v>
+        <v>0.42831486788067663</v>
       </c>
       <c r="M6">
         <f t="shared" si="5"/>
-        <v>5.6650864288826999E-3</v>
+        <v>1.322645290581163E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -1404,15 +1416,15 @@
       </c>
       <c r="K7">
         <f t="shared" si="3"/>
-        <v>1.9505946935041166E-2</v>
+        <v>8.3385481852315362E-3</v>
       </c>
       <c r="L7">
         <f t="shared" si="4"/>
-        <v>2.3392497712717293</v>
+        <v>0.42748748435544431</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
-        <v>8.3385481852315362E-3</v>
+        <v>1.9505946935041166E-2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -1451,15 +1463,15 @@
       </c>
       <c r="K8">
         <f t="shared" si="3"/>
-        <v>1.3538807087596701E-2</v>
+        <v>5.7005753115176123E-3</v>
       </c>
       <c r="L8">
         <f t="shared" si="4"/>
-        <v>2.3749896015306544</v>
+        <v>0.42105447508296923</v>
       </c>
       <c r="M8">
         <f t="shared" si="5"/>
-        <v>5.7005753115176123E-3</v>
+        <v>1.3538807087596701E-2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -1498,15 +1510,15 @@
       </c>
       <c r="K9">
         <f t="shared" si="3"/>
-        <v>3.7031438935912916E-2</v>
+        <v>1.5392347804234457E-2</v>
       </c>
       <c r="L9">
         <f t="shared" si="4"/>
-        <v>2.4058343409915359</v>
+        <v>0.41565621662373564</v>
       </c>
       <c r="M9">
         <f t="shared" si="5"/>
-        <v>1.5392347804234457E-2</v>
+        <v>3.7031438935912916E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -1545,15 +1557,15 @@
       </c>
       <c r="K10">
         <f t="shared" si="3"/>
-        <v>1.7238894173945626E-2</v>
+        <v>7.447073474470732E-3</v>
       </c>
       <c r="L10">
         <f t="shared" si="4"/>
-        <v>2.3148548531234687</v>
+        <v>0.43199252801992521</v>
       </c>
       <c r="M10">
         <f t="shared" si="5"/>
-        <v>7.447073474470732E-3</v>
+        <v>1.7238894173945626E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -1592,15 +1604,15 @@
       </c>
       <c r="K11">
         <f t="shared" si="3"/>
-        <v>2.0209082434412044E-2</v>
+        <v>8.3237342987219614E-3</v>
       </c>
       <c r="L11">
         <f t="shared" si="4"/>
-        <v>2.4278865361566115</v>
+        <v>0.41188086226756632</v>
       </c>
       <c r="M11">
         <f t="shared" si="5"/>
-        <v>8.3237342987219614E-3</v>
+        <v>2.0209082434412044E-2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -1609,15 +1621,15 @@
       </c>
       <c r="K13">
         <f>AVERAGE(K2:K11)</f>
-        <v>1.9461877710412773E-2</v>
+        <v>8.3897864657827784E-3</v>
       </c>
       <c r="L13">
         <f>AVERAGE(L2:L11)</f>
-        <v>2.3249609934937618</v>
+        <v>0.43293280024832514</v>
       </c>
       <c r="M13">
         <f>AVERAGE(M2:M11)</f>
-        <v>8.3897864657827784E-3</v>
+        <v>1.9461877710412773E-2</v>
       </c>
     </row>
     <row r="18" spans="8:10" x14ac:dyDescent="0.2">
@@ -1626,7 +1638,7 @@
       </c>
       <c r="J18">
         <f>L13-K13*KorrekturfaktorenCFP!H13</f>
-        <v>2.3214570815268916</v>
+        <v>0.43142230503124668</v>
       </c>
     </row>
     <row r="20" spans="8:10" x14ac:dyDescent="0.2">
@@ -1635,7 +1647,7 @@
       </c>
       <c r="J20">
         <f>1-L13*KorrekturfaktorenCFP!H13</f>
-        <v>0.58141455984736545</v>
+        <v>0.92205487866007763</v>
       </c>
     </row>
   </sheetData>
@@ -1648,7 +1660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7B5BDB-BCB4-0F48-B978-12681CAD4977}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>

--- a/Versuch_FRET/04-Versuchsauswertung/Paul/42.xlsx
+++ b/Versuch_FRET/04-Versuchsauswertung/Paul/42.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paul/Documents/GitHub/PhyPraktikum/Versuch_FRET/04-Versuchsauswertung/Paul/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4132DA8-690B-0A40-ADBC-08636B2592F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A989E7E-6413-1C4A-8AD4-B4C8AA91BB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19720" activeTab="2" xr2:uid="{6D0E4EF2-1775-E943-B6E8-1DDB3097DE63}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>D</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>(S)A</t>
+  </si>
+  <si>
+    <t>Starndartabweichung</t>
+  </si>
+  <si>
+    <t>STABW</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1105,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1630,6 +1636,23 @@
       <c r="M13">
         <f>AVERAGE(M2:M11)</f>
         <v>1.9461877710412773E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14">
+        <f>STDEV(K2:K11)</f>
+        <v>2.875908972138283E-3</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ref="L14:M14" si="6">STDEV(L2:L11)</f>
+        <v>4.0595367772238863E-2</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="6"/>
+        <v>6.9427724308182334E-3</v>
       </c>
     </row>
     <row r="18" spans="8:10" x14ac:dyDescent="0.2">
@@ -1658,10 +1681,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7B5BDB-BCB4-0F48-B978-12681CAD4977}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1991,6 +2014,15 @@
         <v>0.18003976897849733</v>
       </c>
     </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14">
+        <f>STDEV(H2:H11)</f>
+        <v>5.5672989868673257E-3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Versuch_FRET/04-Versuchsauswertung/Paul/42.xlsx
+++ b/Versuch_FRET/04-Versuchsauswertung/Paul/42.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paul/Documents/GitHub/PhyPraktikum/Versuch_FRET/04-Versuchsauswertung/Paul/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A989E7E-6413-1C4A-8AD4-B4C8AA91BB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE6FF5F-1958-5840-90AC-BFE244EECE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19720" activeTab="2" xr2:uid="{6D0E4EF2-1775-E943-B6E8-1DDB3097DE63}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19720" activeTab="1" xr2:uid="{6D0E4EF2-1775-E943-B6E8-1DDB3097DE63}"/>
   </bookViews>
   <sheets>
     <sheet name="SE-E-CY" sheetId="3" r:id="rId1"/>
@@ -1104,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC85BF5-D058-0D41-B40B-CDD072D3FB19}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1683,7 +1683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7B5BDB-BCB4-0F48-B978-12681CAD4977}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>

--- a/Versuch_FRET/04-Versuchsauswertung/Paul/42.xlsx
+++ b/Versuch_FRET/04-Versuchsauswertung/Paul/42.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paul/Documents/GitHub/PhyPraktikum/Versuch_FRET/04-Versuchsauswertung/Paul/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE6FF5F-1958-5840-90AC-BFE244EECE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4335F4D0-6662-C740-94C7-1A44D1D4F9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19720" activeTab="1" xr2:uid="{6D0E4EF2-1775-E943-B6E8-1DDB3097DE63}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19720" xr2:uid="{6D0E4EF2-1775-E943-B6E8-1DDB3097DE63}"/>
   </bookViews>
   <sheets>
     <sheet name="SE-E-CY" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>D</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>STABW</t>
+  </si>
+  <si>
+    <t>A gb</t>
+  </si>
+  <si>
+    <t>Mittelwerte</t>
   </si>
 </sst>
 </file>
@@ -132,12 +138,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -152,8 +164,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -468,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5212FA19-28C7-594B-9974-032BBDBF66D8}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -484,28 +497,28 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
       </c>
       <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
         <v>1</v>
-      </c>
-      <c r="J1" t="s">
-        <v>2</v>
       </c>
       <c r="K1" t="s">
         <v>19</v>
@@ -548,6 +561,14 @@
         <f t="shared" si="0"/>
         <v>78.641999999999996</v>
       </c>
+      <c r="K2">
+        <f>(I2-KorrekturfaktorenCFP!$H$13*'SE-E-CY'!H2-KorrekturfaktorenYFP!$J$18)/KorrekturfaktorenYFP!$J$20</f>
+        <v>43.176840451166903</v>
+      </c>
+      <c r="L2">
+        <f>K2/SQRT(J2*H2)</f>
+        <v>0.54782301789840182</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -583,6 +604,14 @@
         <f t="shared" ref="J3:J23" si="3">D3-G3</f>
         <v>44.436999999999998</v>
       </c>
+      <c r="K3">
+        <f>(I3-KorrekturfaktorenCFP!$H$13*'SE-E-CY'!H3-KorrekturfaktorenYFP!$J$18)/KorrekturfaktorenYFP!$J$20</f>
+        <v>22.002978798678445</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L18" si="4">K3/SQRT(J3*H3)</f>
+        <v>0.47212966224976682</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -618,6 +647,14 @@
         <f t="shared" si="3"/>
         <v>40.630000000000003</v>
       </c>
+      <c r="K4">
+        <f>(I4-KorrekturfaktorenCFP!$H$13*'SE-E-CY'!H4-KorrekturfaktorenYFP!$J$18)/KorrekturfaktorenYFP!$J$20</f>
+        <v>22.037035738310209</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="4"/>
+        <v>0.54145131036463656</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -653,6 +690,14 @@
         <f t="shared" si="3"/>
         <v>40.205999999999996</v>
       </c>
+      <c r="K5">
+        <f>(I5-KorrekturfaktorenCFP!$H$13*'SE-E-CY'!H5-KorrekturfaktorenYFP!$J$18)/KorrekturfaktorenYFP!$J$20</f>
+        <v>19.538192006649435</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="4"/>
+        <v>0.5170433007212496</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -688,6 +733,14 @@
         <f t="shared" si="3"/>
         <v>36.237000000000002</v>
       </c>
+      <c r="K6">
+        <f>(I6-KorrekturfaktorenCFP!$H$13*'SE-E-CY'!H6-KorrekturfaktorenYFP!$J$18)/KorrekturfaktorenYFP!$J$20</f>
+        <v>17.769304512741748</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>0.52363785067736857</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -723,6 +776,14 @@
         <f t="shared" si="3"/>
         <v>36.418999999999997</v>
       </c>
+      <c r="K7">
+        <f>(I7-KorrekturfaktorenCFP!$H$13*'SE-E-CY'!H7-KorrekturfaktorenYFP!$J$18)/KorrekturfaktorenYFP!$J$20</f>
+        <v>18.742015105384471</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>0.38326736070545353</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -758,6 +819,14 @@
         <f t="shared" si="3"/>
         <v>53.054000000000002</v>
       </c>
+      <c r="K8">
+        <f>(I8-KorrekturfaktorenCFP!$H$13*'SE-E-CY'!H8-KorrekturfaktorenYFP!$J$18)/KorrekturfaktorenYFP!$J$20</f>
+        <v>26.599005668064873</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="4"/>
+        <v>0.5627343187066246</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -793,6 +862,14 @@
         <f t="shared" si="3"/>
         <v>40.689</v>
       </c>
+      <c r="K9">
+        <f>(I9-KorrekturfaktorenCFP!$H$13*'SE-E-CY'!H9-KorrekturfaktorenYFP!$J$18)/KorrekturfaktorenYFP!$J$20</f>
+        <v>20.289196914936937</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>0.45960611046581373</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -828,6 +905,14 @@
         <f t="shared" si="3"/>
         <v>50.414999999999999</v>
       </c>
+      <c r="K10">
+        <f>(I10-KorrekturfaktorenCFP!$H$13*'SE-E-CY'!H10-KorrekturfaktorenYFP!$J$18)/KorrekturfaktorenYFP!$J$20</f>
+        <v>26.05575494626601</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="4"/>
+        <v>0.6271198614030965</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -863,6 +948,14 @@
         <f t="shared" si="3"/>
         <v>127.373</v>
       </c>
+      <c r="K11">
+        <f>(I11-KorrekturfaktorenCFP!$H$13*'SE-E-CY'!H11-KorrekturfaktorenYFP!$J$18)/KorrekturfaktorenYFP!$J$20</f>
+        <v>60.430551247001233</v>
+      </c>
+      <c r="L11">
+        <f>K11/SQRT(J11*H11)</f>
+        <v>1.2644906188968956</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -898,6 +991,14 @@
         <f t="shared" si="3"/>
         <v>41.516999999999996</v>
       </c>
+      <c r="K12">
+        <f>(I12-KorrekturfaktorenCFP!$H$13*'SE-E-CY'!H12-KorrekturfaktorenYFP!$J$18)/KorrekturfaktorenYFP!$J$20</f>
+        <v>22.350672435966441</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="4"/>
+        <v>0.57032670239397731</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -933,6 +1034,14 @@
         <f t="shared" si="3"/>
         <v>47.458999999999996</v>
       </c>
+      <c r="K13">
+        <f>(I13-KorrekturfaktorenCFP!$H$13*'SE-E-CY'!H13-KorrekturfaktorenYFP!$J$18)/KorrekturfaktorenYFP!$J$20</f>
+        <v>24.437686009570083</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="4"/>
+        <v>0.64846077255232482</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -968,131 +1077,198 @@
         <f t="shared" si="3"/>
         <v>16.353000000000002</v>
       </c>
+      <c r="K14">
+        <f>(I14-KorrekturfaktorenCFP!$H$13*'SE-E-CY'!H14-KorrekturfaktorenYFP!$J$18)/KorrekturfaktorenYFP!$J$20</f>
+        <v>7.8762633363504904</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="4"/>
+        <v>0.80873737270023871</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>35.128999999999998</v>
+      </c>
+      <c r="C15">
+        <v>30.853000000000002</v>
+      </c>
+      <c r="D15">
+        <v>47.656999999999996</v>
+      </c>
+      <c r="E15">
+        <v>3.6429999999999998</v>
+      </c>
+      <c r="F15">
+        <v>2.0640000000000001</v>
+      </c>
+      <c r="G15">
+        <v>1.978</v>
+      </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>31.485999999999997</v>
       </c>
       <c r="I15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>28.789000000000001</v>
       </c>
       <c r="J15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>45.678999999999995</v>
+      </c>
+      <c r="K15">
+        <f>(I15-KorrekturfaktorenCFP!$H$13*'SE-E-CY'!H15-KorrekturfaktorenYFP!$J$18)/KorrekturfaktorenYFP!$J$20</f>
+        <v>24.606827699760156</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="4"/>
+        <v>0.64884145396041393</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>26.108000000000001</v>
+      </c>
+      <c r="C16">
+        <v>21.31</v>
+      </c>
+      <c r="D16">
+        <v>35.04</v>
+      </c>
+      <c r="E16">
+        <v>3.625</v>
+      </c>
+      <c r="F16">
+        <v>1.819</v>
+      </c>
+      <c r="G16">
+        <v>1.9039999999999999</v>
+      </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22.483000000000001</v>
       </c>
       <c r="I16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>19.491</v>
       </c>
       <c r="J16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="8:10" x14ac:dyDescent="0.2">
+        <v>33.135999999999996</v>
+      </c>
+      <c r="K16">
+        <f>(I16-KorrekturfaktorenCFP!$H$13*'SE-E-CY'!H16-KorrekturfaktorenYFP!$J$18)/KorrekturfaktorenYFP!$J$20</f>
+        <v>16.280748485209617</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="4"/>
+        <v>0.59648179888286568</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>27.459</v>
+      </c>
+      <c r="C17">
+        <v>20.422000000000001</v>
+      </c>
+      <c r="D17">
+        <v>31.154</v>
+      </c>
+      <c r="E17">
+        <v>3.5379999999999998</v>
+      </c>
+      <c r="F17">
+        <v>1.444</v>
+      </c>
+      <c r="G17">
+        <v>1.157</v>
+      </c>
       <c r="H17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23.920999999999999</v>
       </c>
       <c r="I17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>18.978000000000002</v>
       </c>
       <c r="J17">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="8:10" x14ac:dyDescent="0.2">
+        <v>29.997</v>
+      </c>
+      <c r="K17">
+        <f>(I17-KorrekturfaktorenCFP!$H$13*'SE-E-CY'!H17-KorrekturfaktorenYFP!$J$18)/KorrekturfaktorenYFP!$J$20</f>
+        <v>15.443599628177605</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="4"/>
+        <v>0.5765274061886807</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>26.423999999999999</v>
+      </c>
+      <c r="C18">
+        <v>18.082999999999998</v>
+      </c>
+      <c r="D18">
+        <v>27.143999999999998</v>
+      </c>
+      <c r="E18">
+        <v>3.5139999999999998</v>
+      </c>
+      <c r="F18">
+        <v>1.909</v>
+      </c>
+      <c r="G18">
+        <v>1.595</v>
+      </c>
       <c r="H18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22.91</v>
       </c>
       <c r="I18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16.173999999999999</v>
       </c>
       <c r="J18">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>25.548999999999999</v>
+      </c>
+      <c r="K18">
+        <f>(I18-KorrekturfaktorenCFP!$H$13*'SE-E-CY'!H18-KorrekturfaktorenYFP!$J$18)/KorrekturfaktorenYFP!$J$20</f>
+        <v>12.599973013053589</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="4"/>
+        <v>0.52079897064961467</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20">
+        <f>AVERAGE(K2:K18)</f>
+        <v>23.543332117487548</v>
+      </c>
+      <c r="L20">
+        <f>AVERAGE(L2:L18)</f>
+        <v>0.60408693467161323</v>
       </c>
     </row>
   </sheetData>
@@ -1104,7 +1280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC85BF5-D058-0D41-B40B-CDD072D3FB19}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>

--- a/Versuch_FRET/04-Versuchsauswertung/Paul/42.xlsx
+++ b/Versuch_FRET/04-Versuchsauswertung/Paul/42.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paul/Documents/GitHub/PhyPraktikum/Versuch_FRET/04-Versuchsauswertung/Paul/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4335F4D0-6662-C740-94C7-1A44D1D4F9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCA1A21-79D8-C54A-9B69-B3CAD6B4BFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19720" xr2:uid="{6D0E4EF2-1775-E943-B6E8-1DDB3097DE63}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>D</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Mittelwerte</t>
+  </si>
+  <si>
+    <t>Stabw</t>
   </si>
 </sst>
 </file>
@@ -481,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5212FA19-28C7-594B-9974-032BBDBF66D8}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -593,15 +596,15 @@
         <v>1.4650000000000001</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H23" si="1">B3-E3</f>
+        <f t="shared" ref="H3:H18" si="1">B3-E3</f>
         <v>48.876000000000005</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I23" si="2">C3-F3</f>
+        <f t="shared" ref="I3:I18" si="2">C3-F3</f>
         <v>29.519000000000002</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J23" si="3">D3-G3</f>
+        <f t="shared" ref="J3:J18" si="3">D3-G3</f>
         <v>44.436999999999998</v>
       </c>
       <c r="K3">
@@ -1269,6 +1272,19 @@
       <c r="L20">
         <f>AVERAGE(L2:L18)</f>
         <v>0.60408693467161323</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21">
+        <f>STDEV(K2:K18)</f>
+        <v>12.08401181067566</v>
+      </c>
+      <c r="L21">
+        <f>STDEV(L2:L18)</f>
+        <v>0.19386006624450039</v>
       </c>
     </row>
   </sheetData>
@@ -1281,7 +1297,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
